--- a/Day10_TestCase.xlsx
+++ b/Day10_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623BCDBD-DF6A-4A29-9D0F-0CBD517E563B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5A19E-7FB7-43A8-B12A-0E6F3029D9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
